--- a/upgrade_device_list.xlsx
+++ b/upgrade_device_list.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">device_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">device_name_in_vd</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -43,16 +43,13 @@
     <t xml:space="preserve">package_name</t>
   </si>
   <si>
-    <t xml:space="preserve">device_name_in_vd</t>
-  </si>
-  <si>
     <t xml:space="preserve">upgrade_type</t>
   </si>
   <si>
     <t xml:space="preserve">package_info</t>
   </si>
   <si>
-    <t xml:space="preserve">CPE26</t>
+    <t xml:space="preserve">CPE26-sathish</t>
   </si>
   <si>
     <t xml:space="preserve">versa</t>
@@ -70,40 +67,28 @@
     <t xml:space="preserve">felxvnf-16.1R1S3-sathish</t>
   </si>
   <si>
-    <t xml:space="preserve">CPE26-sathish</t>
-  </si>
-  <si>
     <t xml:space="preserve">deb-package-upgrade</t>
   </si>
   <si>
     <t xml:space="preserve">versa-flexvnf-20171107-024119-e51d9e9-16.1R1-wsm</t>
   </si>
   <si>
-    <t xml:space="preserve">CPE27</t>
+    <t xml:space="preserve">CPE27-sathish</t>
   </si>
   <si>
     <t xml:space="preserve">10.91.116.234</t>
   </si>
   <si>
-    <t xml:space="preserve">CPE27-sathish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPE28</t>
+    <t xml:space="preserve">CPE-Osbourne2</t>
   </si>
   <si>
     <t xml:space="preserve">10.91.116.245</t>
   </si>
   <si>
-    <t xml:space="preserve">CPE-Osbourne2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPE29</t>
+    <t xml:space="preserve">CPE-Osbourne1</t>
   </si>
   <si>
     <t xml:space="preserve">10.91.116.246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPE-Osbourne1</t>
   </si>
   <si>
     <t xml:space="preserve">versa-flexvnf-20171107-021905-e51d9e9-16.1R1</t>
@@ -116,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -138,12 +123,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +172,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,21 +193,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.331983805668"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.7732793522267"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -254,145 +233,129 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
